--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="452">
   <si>
     <t>Nome</t>
   </si>
@@ -32,20 +32,1361 @@
     <t>Telefone</t>
   </si>
   <si>
-    <t>GARIBALDO</t>
-  </si>
-  <si>
-    <t>GODOFREDO</t>
-  </si>
-  <si>
-    <t>JUREMA</t>
+    <t>26 - Dani - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Pb Edison Souza - designer_gráfico_profissional</t>
+  </si>
+  <si>
+    <t>26 - Luzy Silva - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Fred Campos - web_design_avançado</t>
+  </si>
+  <si>
+    <t>26 - Matheus Formariz - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Graça Melo - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Elaine Carvalho - atendente_de_farmácia</t>
+  </si>
+  <si>
+    <t>26 - Sergio Vicente Doria - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Conceição Andrade - fotografia_digital</t>
+  </si>
+  <si>
+    <t>26 - Lucio Moraes - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Aparecida Souza - assistente_contábil</t>
+  </si>
+  <si>
+    <t>26 - Lucia Alves - inglês</t>
+  </si>
+  <si>
+    <t>26 - Waldete Siqueira - fotografia_digital</t>
+  </si>
+  <si>
+    <t>26 - Jesus Alves da Silva - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Rafael O Costa - inglês</t>
+  </si>
+  <si>
+    <t>26 - Solange Vasconcellos - operador_de_caixa</t>
+  </si>
+  <si>
+    <t>26 - washington luiz vivas - inglês</t>
+  </si>
+  <si>
+    <t>26 - Luis Paixao de Souza Reis - illustrator</t>
+  </si>
+  <si>
+    <t>26 - Juciara Costa da Silva - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Hosana João Tito - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Sheila Regina - inglês</t>
+  </si>
+  <si>
+    <t>26 - Paulo Roberto Pereira da Silva - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Renato de Souza Carvalho Rosa - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Berdevill Robson - web_design</t>
+  </si>
+  <si>
+    <t>26 - Sergio Bertoco - autocad_2d_e_3d</t>
+  </si>
+  <si>
+    <t>26 - Jose Fernandes Alves - e-commerce</t>
+  </si>
+  <si>
+    <t>26 - Wesley Soares Rodrigues - produção_de_vídeos_para_youtube</t>
+  </si>
+  <si>
+    <t>26 - Dorinha Alves - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Alexandre Oliveira - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Anna Claudia Quadros - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Cassia Cristina - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Débora Brito Vieira - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Lucio Costa - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Cristiane Silva - programador_profissional</t>
+  </si>
+  <si>
+    <t>26 - Marilene Manhaes de Lemos - photoshop</t>
+  </si>
+  <si>
+    <t>26 - Antonio Claudio Bento da Silva - inglês</t>
+  </si>
+  <si>
+    <t>26 - Jamile - e-commerce</t>
+  </si>
+  <si>
+    <t>26 - Eve Costa - inglês</t>
+  </si>
+  <si>
+    <t>26 - Sharise Meirelles - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Roberto Mansano - inglês</t>
+  </si>
+  <si>
+    <t>26 - Jorge Cunha - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Marcos Barbosa - informática</t>
+  </si>
+  <si>
+    <t>26 - Joao Carlos Dos Santos - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Maria G. de Oliveira - gestão_empresarial</t>
+  </si>
+  <si>
+    <t>26 - Gilmar Fernandes Jales Jales - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Jorge Alberto Soares - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Ernandes Souza Costa - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Wallace Santos - autocad_2d_e_3d</t>
+  </si>
+  <si>
+    <t>26 - Raimunda Beleza - informática</t>
+  </si>
+  <si>
+    <t>26 - Miriam Rodrigues Ferreira - assistente_de_design_de_interiores</t>
+  </si>
+  <si>
+    <t>26 - André Luiz Monnerat - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Alfredo Gomes Moraes - hardware</t>
+  </si>
+  <si>
+    <t>26 - Michelle Luporini - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Rubens Tank - revit</t>
+  </si>
+  <si>
+    <t>26 - cristiano bernardo - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Joao Oliveira - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Raphael de Oliveira - informática</t>
+  </si>
+  <si>
+    <t>26 - Jocelia Silva de Araujo - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Rosângela Thomayz - informática</t>
+  </si>
+  <si>
+    <t>26 - Sebastião Lucas Lucas - projetista_digital</t>
+  </si>
+  <si>
+    <t>26 - Valter de Mello Barbosa - informática</t>
+  </si>
+  <si>
+    <t>26 - Marcos Da Silva Xisto - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Antônio Severino Lima - inglês</t>
+  </si>
+  <si>
+    <t>26 - Julio Couto - assistente_contábil</t>
+  </si>
+  <si>
+    <t>26 - Alexandre Pentecoste - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Thiago Pereira de Souza - inglês</t>
+  </si>
+  <si>
+    <t>26 - Ivaneide de Oliveira Nascimento Silva - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Daniel Cabral - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Antonio Carlos Costa Machado - fotografia_digital</t>
+  </si>
+  <si>
+    <t>26 - Rosa Venus - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Luzamar Affonso - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Anderson Sardou - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Mario Braga - empreendedorismo_digital</t>
+  </si>
+  <si>
+    <t>26 - Marcio Joaquim Arruda - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Fabio Israel - web_design_avançado</t>
+  </si>
+  <si>
+    <t>26 - Sylvio Romero Calmon Pitanga - inglês</t>
+  </si>
+  <si>
+    <t>26 - Jairo Oliveira Santos - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Velma Sousa Cordeiro - assistente_de_design_de_interiores</t>
+  </si>
+  <si>
+    <t>26 - Monica Serrano Scabbiolo - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Fabio Cintra Menezes - web_design</t>
+  </si>
+  <si>
+    <t>26 - Paula Caroline de Carvalho Silva Pacheco - inglês</t>
+  </si>
+  <si>
+    <t>26 - Celso Pereira - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Paulo Da Silva - inglês</t>
+  </si>
+  <si>
+    <t>26 - Itamar de Souza Rangel - fotografia_digital</t>
+  </si>
+  <si>
+    <t>26 - Kelle Cristina da Silva Carvalho - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Antonio Eliseu - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Leandro Carvalho - programador_profissional</t>
+  </si>
+  <si>
+    <t>26 - Fabiana Gomes Coutinho - web_design_avançado</t>
+  </si>
+  <si>
+    <t>26 - Cláudio Roberto - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Christian Paulo Barros Batista - programador_profissional</t>
+  </si>
+  <si>
+    <t>26 - Arnaldo Da Costa Filho - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Roberta Maria - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Rafael Damiao - inglês</t>
+  </si>
+  <si>
+    <t>26 - efigenia paixao dos anjos - gestão_em_vendas</t>
+  </si>
+  <si>
+    <t>26 - Cristiano De Lacerda Tchaka - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Marco Antonio Lopes Magalhaes - designer_multimídia_(edição_de_vídeos)</t>
+  </si>
+  <si>
+    <t>26 - Janaira Alves - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Nelson Campos Soares - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Krasler Gomes Correa - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - André Oliveira - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Cláudia Arcanjo Marinho - web_design</t>
+  </si>
+  <si>
+    <t>26 - Mauro Cesar - autocad_2d_e_3d</t>
+  </si>
+  <si>
+    <t>26 - Joine Martins - gestão_empresarial</t>
+  </si>
+  <si>
+    <t>26 - Luciana Caroline Portes de Jesus - web_design</t>
+  </si>
+  <si>
+    <t>26 - Ronaldo Melo da Silva - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Ina Braga - inglês</t>
+  </si>
+  <si>
+    <t>26 - André Luiz Reis - programador_profissional</t>
+  </si>
+  <si>
+    <t>26 - Patricia Dias - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Fabiano Macedo - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - walmir Lopes dos Santos - after_effects</t>
+  </si>
+  <si>
+    <t>26 - Veronica Regueira Dos Santos - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Joel Bitencourt Serra - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - Bruna Da Bica Silva - atendente_de_farmácia</t>
+  </si>
+  <si>
+    <t>26 - Jackson Luiz do Nascimento Oliveira - autocad_2d_e_3d</t>
+  </si>
+  <si>
+    <t>26 - Jaide Do Vale Matos - gestão_em_vendas</t>
+  </si>
+  <si>
+    <t>26 - Bianca Santos - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Marcio Pinheiro Magalhães - web_design</t>
+  </si>
+  <si>
+    <t>26 - Marcia Correia - inglês</t>
+  </si>
+  <si>
+    <t>26 - Rodrigo Diniz - programador_profissional</t>
+  </si>
+  <si>
+    <t>26 - Alexander Costa - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Luis Claudio Santos Pereira - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Maria Do Ceu Gomes - assistente_de_design_de_interiores</t>
+  </si>
+  <si>
+    <t>26 - Marcelle Teixeira - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Jose de Andrade Filho - photoshop</t>
+  </si>
+  <si>
+    <t>26 - Rafael Almeida - inglês</t>
+  </si>
+  <si>
+    <t>26 - Cédric Cuthbert - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Valdira Souza - operador_de_caixa</t>
+  </si>
+  <si>
+    <t>26 - Valério Melquíades - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Jennifer Lima - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - jane Keli Gonçalves - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - naide da silva Lima - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Dani Nunes - empreendedorismo_digital</t>
+  </si>
+  <si>
+    <t>26 - Christiano Vieira da Silva - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - stefany  vitoria - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Sebastiao Da Silva Moreira - informática</t>
+  </si>
+  <si>
+    <t>26 - Rogério Silvio Da Conceição Silvio - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Rose Fátima - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - João Santos - projetista_digital</t>
+  </si>
+  <si>
+    <t>26 - Marcus Machado - informática</t>
+  </si>
+  <si>
+    <t>26 - Adriano Carvalho - inglês</t>
+  </si>
+  <si>
+    <t>26 - Reginaldo Joildo da Silva Sousa - inglês</t>
+  </si>
+  <si>
+    <t>26 - Michele Rosa - atendente_de_farmácia</t>
+  </si>
+  <si>
+    <t>26 - Cosme Valuche - informática</t>
+  </si>
+  <si>
+    <t>26 - Cassia Maria - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Alexandre Dsm - design_premium_(design_gráfico_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Marcello Aristeu - gestão_em_vendas</t>
+  </si>
+  <si>
+    <t>26 - Fernanda Resende - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Jackson Vargas - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Deusenir Silva - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Sandra Ribeiro - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Elizete Barreiro - inglês</t>
+  </si>
+  <si>
+    <t>26 - Michele oliveira - atendente_de_farmácia</t>
+  </si>
+  <si>
+    <t>26 - Iris Lyra - inglês</t>
+  </si>
+  <si>
+    <t>26 - Hercilia Dos Santos Santos - inglês</t>
+  </si>
+  <si>
+    <t>26 - Jaderson Santos Da Silva - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Brenda Constancia Fuinha - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Luizclaudio Provinzano Andrade - atendente_de_farmácia</t>
+  </si>
+  <si>
+    <t>26 - Jhonatan Anjos de Andrade - photoshop</t>
+  </si>
+  <si>
+    <t>26 - marcos sergio - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Luiz Carlos - programador_profissional</t>
+  </si>
+  <si>
+    <t>26 - Helvio Malagris - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Alberto Caldas - inglês</t>
+  </si>
+  <si>
+    <t>26 - Oscar Benjamim Constantino - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Fernando Noia de oliveira - corel_draw</t>
+  </si>
+  <si>
+    <t>26 - Daniel Macedo de Oliveira - produção_de_vídeos_para_youtube</t>
+  </si>
+  <si>
+    <t>26 - Maria Enedina Barboza Rodrigues Rodrigues - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Sara Vaz - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - shana de Cássia dos Santos Silva - inglês</t>
+  </si>
+  <si>
+    <t>26 - Evelyn Louback - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Luan Albuquerque - inglês</t>
+  </si>
+  <si>
+    <t>26 - Lurdinha Santos - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Haide Brum - inglês</t>
+  </si>
+  <si>
+    <t>26 - Matheus Seraine da Silva Rocha Lin - informática</t>
+  </si>
+  <si>
+    <t>26 - Meneide Jean Luc - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Davi Menezes - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Adriana Santos - design_premium_(design_gráfico_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Sergio Fernandes Piccoli - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Marcelo Macedo - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Luiz Henrique Ledo de Brito - empreendedorismo_digital</t>
+  </si>
+  <si>
+    <t>26 - Abraham T Ch - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Vasni De Moura - gestão_em_vendas</t>
+  </si>
+  <si>
+    <t>26 - Flávia Fernandes Vieira Fernandes - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Marcelo Costa - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Raphael Reis - produção_de_vídeos_para_youtube</t>
+  </si>
+  <si>
+    <t>26 - Marcia - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - João Carlos Luz - designer_multimídia_(edição_de_vídeos)</t>
+  </si>
+  <si>
+    <t>26 - Francesco Tatyana Rosselli - revit</t>
+  </si>
+  <si>
+    <t>26 - luciane Silva Almeida Moura - atendente_de_farmácia</t>
+  </si>
+  <si>
+    <t>26 - Wellington Matheus da conceição Alves - informática</t>
+  </si>
+  <si>
+    <t>26 - Rose Espilare - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Sandra Maria BRIZIO - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Jose Carlos Muniz Pereira Pereira - assistente_de_marketing</t>
+  </si>
+  <si>
+    <t>26 - Railda Galvão - inglês</t>
+  </si>
+  <si>
+    <t>26 - Rafael Adão - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Cesar Augusto Alves - web_design_avançado</t>
+  </si>
+  <si>
+    <t>26 - Luana Oliveira - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Elisangela Cavalcanti - corel_draw</t>
+  </si>
+  <si>
+    <t>26 - Davi Bento de Lima Passomidis - inglês</t>
+  </si>
+  <si>
+    <t>26 - Simony Katanduba - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Paulo Sergio - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Isus Krist Blazena Majice - premiere_pro</t>
+  </si>
+  <si>
+    <t>26 - Luma Leão - e-commerce</t>
+  </si>
+  <si>
+    <t>26 - Weslei Barroso Teixeira de Oliveira - atendente_de_farmácia</t>
+  </si>
+  <si>
+    <t>26 - Sueli Goncalves - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Onassis Loureiro Costa - gestão_empresarial</t>
+  </si>
+  <si>
+    <t>26 - Erci Barros Peixoto Valença - assistente_de_design_de_interiores</t>
+  </si>
+  <si>
+    <t>26 - Barbara Bastos - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Karine Santos - informática</t>
+  </si>
+  <si>
+    <t>26 - Lidiane Vale - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Edson Silva Leão - projetista_digital</t>
+  </si>
+  <si>
+    <t>26 - Walquiria Lacerda Matos - promob</t>
+  </si>
+  <si>
+    <t>26 - André Vicente - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Airton Luiz da Silva - web_design</t>
+  </si>
+  <si>
+    <t>26 - Ruth Sergio Ribeiro Ribeiro - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Fatima Werneck Barreto - informática</t>
+  </si>
+  <si>
+    <t>26 - Chandler Furtado - inglês</t>
+  </si>
+  <si>
+    <t>26 - luci dos santos bordallo - produção_de_vídeos_para_youtube</t>
+  </si>
+  <si>
+    <t>26 - Claudia Ferreira - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Flávia Peres - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - Cintia Góes - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Cristina Mercadante - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Vini Sousa - inglês</t>
+  </si>
+  <si>
+    <t>26 - Caren Anne - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Andre Silva - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Maria Jose Paiva Gomes - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Everildo Ribeiro - informática</t>
+  </si>
+  <si>
+    <t>26 - Washington da Silva - promob</t>
+  </si>
+  <si>
+    <t>26 - Joao Victor Ramos - inglês</t>
+  </si>
+  <si>
+    <t>26 - evellyn costa da silva verissimo - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Delfina Maria Leitao Leitao - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Adaias Freitas - inglês</t>
+  </si>
+  <si>
+    <t>26 - Edwilson Alves dos Reis - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Ciro Rodrigues - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Andreia Pires marinho Rodrigues - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Mayara Lima - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Jenyffer Steffany - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Marcos Leoni Moraes Moraes - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - José Campos - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - Gerly Pereira - fotografia_digital</t>
+  </si>
+  <si>
+    <t>26 - Aparecida Prazeres - informática</t>
+  </si>
+  <si>
+    <t>26 - Maria Das Graças - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Yuri Jesus - web_design</t>
+  </si>
+  <si>
+    <t>26 - Livian Oliveira - assistente_contábil</t>
+  </si>
+  <si>
+    <t>26 - Eliete Severiano - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Janaina Maria da Silva Corado da - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Isaías Batista Silva - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Andre Carvalho - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Lara Cardoso - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Marcos Henrique - sketchup</t>
+  </si>
+  <si>
+    <t>26 - André Luiz Santos Araujo - atendente_de_farmácia</t>
+  </si>
+  <si>
+    <t>26 - Janaina Ferreira - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Uelington Leonardo Da Costa - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Cosme da Silva Alves - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Selma Medeiros - inglês</t>
+  </si>
+  <si>
+    <t>26 - Luciana Menezes - gestão_em_vendas</t>
+  </si>
+  <si>
+    <t>26 - João Filgueiras - revit</t>
+  </si>
+  <si>
+    <t>26 - Cesar Guilherme Jacobina Esteves - revit</t>
+  </si>
+  <si>
+    <t>26 - George Fernandes - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Monique Ferreira Dos Santos - operador_de_caixa</t>
+  </si>
+  <si>
+    <t>26 - DAVI_DIAS_VIEIRA - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Aldo Leal - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Romão batista de Melo - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Sheila Souza - web_design</t>
+  </si>
+  <si>
+    <t>26 - Angela Engbrecht - e-commerce</t>
+  </si>
+  <si>
+    <t>26 - Ana  Claudia souza de Oliveira - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Tania Maria Carvalho - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Nelson Gomes Pereira Filho - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Douglas D'Ávila - informática</t>
+  </si>
+  <si>
+    <t>26 - José Gomes - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - Leonardo Bernardo - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Valentín Serquén - inglês</t>
+  </si>
+  <si>
+    <t>26 - Pinto Da Silva Alexandre Carlos - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Maria Luzia N - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Valéria Moreira - web_design</t>
+  </si>
+  <si>
+    <t>26 - Lucilia Gomes - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Leila Damasceno - inglês</t>
+  </si>
+  <si>
+    <t>26 - Elda Lima - programador_profissional</t>
+  </si>
+  <si>
+    <t>26 - Claudia Alves - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Adriano Rodrigues - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Eliene Miranda de Castro - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - nailton silva - inglês</t>
+  </si>
+  <si>
+    <t>26 - Marcio Estofados - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Ana Izabel Costa de Souza - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Rosangela Lamas - gestão_empresarial</t>
+  </si>
+  <si>
+    <t>26 - Marillene Monteiro - assistente_de_design_de_interiores</t>
+  </si>
+  <si>
+    <t>26 - Raphael Perez Lopes - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Reuel Barbosa - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Roberta Martins - inglês</t>
+  </si>
+  <si>
+    <t>26 - Lucia Helena Mutti Nunes - assistente_de_design_de_interiores</t>
+  </si>
+  <si>
+    <t>26 - Jorge Luiz Imenes Mariz de Oliveira - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Mauricio Da Silva - informática</t>
+  </si>
+  <si>
+    <t>26 - Carol Linda Arcanjo - operador_de_caixa</t>
+  </si>
+  <si>
+    <t>26 - José Robson - operador_de_caixa</t>
+  </si>
+  <si>
+    <t>26 - Patricia João Lucas Roberto Álvares - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Alisson Oliveira - inglês</t>
+  </si>
+  <si>
+    <t>26 - Rosângela Rocha - assistente_de_design_de_interiores</t>
+  </si>
+  <si>
+    <t>26 - Ricardo Sobral - inglês</t>
+  </si>
+  <si>
+    <t>26 - Miriam Cristina Erthal - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Antonio Vieira Filho - autocad_2d_e_3d</t>
+  </si>
+  <si>
+    <t>26 - Isaque de Souza Lima - web_design_avançado</t>
+  </si>
+  <si>
+    <t>26 - Ilda Maria Lisboa - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Regina Mesquita - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Maricélia Cavalcante - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Erivelton P Silva - autocad_2d_e_3d</t>
+  </si>
+  <si>
+    <t>26 - Andyara Do Nascimento - web_design</t>
+  </si>
+  <si>
+    <t>26 - Rodrigo Zauza Oliveira - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - André Luiz Pinnola - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Adriana Rodrigues - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - Alexander Antunes - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Aguinaldo Oliveira - inglês</t>
+  </si>
+  <si>
+    <t>26 - Luiz Araujo Braga - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Vanessa Gontijo Milheiro - operador_de_caixa</t>
+  </si>
+  <si>
+    <t>26 - Sergio Dos Santos - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Aline Moura - inglês</t>
+  </si>
+  <si>
+    <t>26 - Rosemary Silva - inglês</t>
+  </si>
+  <si>
+    <t>26 - Clauberto Veras Timbo - autocad_2d_e_3d</t>
+  </si>
+  <si>
+    <t>26 - Elissandra Almeida - atendente_de_farmácia</t>
+  </si>
+  <si>
+    <t>26 - Paulo Sérgio De M. Pedroso - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Otoniel Silva Azevexo - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Camilla David - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Vera Lucia Kloczko - inglês</t>
+  </si>
+  <si>
+    <t>26 - Elenilson Lins - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Valeria Almeida - inglês</t>
+  </si>
+  <si>
+    <t>26 - Danielle Gameloni - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - Adriano Alves De Souza - designer_multimídia_(edição_de_vídeos)</t>
+  </si>
+  <si>
+    <t>26 - Márcia Gurgel Nascimento - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Sergio A. Affonso - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Fernando Leal - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Pereira Dani - gestão_empresarial</t>
+  </si>
+  <si>
+    <t>26 - Taumaturgo Barbosa - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Sabline Juncken - inglês</t>
+  </si>
+  <si>
+    <t>26 - Miriam Penido - informática</t>
+  </si>
+  <si>
+    <t>26 - Andrea Neves - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Leidimar Barbosa - adm._tech_(adiministração_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Maria Da Glória Souza Clemente - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Fernando Lara Dos Santos - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Oliveira Oliveira - projetista_digital</t>
+  </si>
+  <si>
+    <t>26 - Lucas Hote - designer_multimídia_(edição_de_vídeos)</t>
+  </si>
+  <si>
+    <t>26 - Servo Do Rei Atalaia - autocad_2d_e_3d</t>
+  </si>
+  <si>
+    <t>26 - Davi Lopes - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Maryene Toscano - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Naldo Lima - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Cecilia Freire - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Elaine Baptista - gestão_em_vendas</t>
+  </si>
+  <si>
+    <t>26 - Selano Alessandro - assistente_de_logística</t>
+  </si>
+  <si>
+    <t>26 - Selma Vieira - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - adriana - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Nívea Jack Jackson - produção_de_vídeos_para_youtube</t>
+  </si>
+  <si>
+    <t>26 - Nelia Azevedo - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Thiago Farias - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Fatima Candido - inglês</t>
+  </si>
+  <si>
+    <t>26 - Jose Lemos - desenvolvedor_de_jogos</t>
+  </si>
+  <si>
+    <t>26 - Maria Eunice Soares Gonçalves - produção_de_vídeos_para_youtube</t>
+  </si>
+  <si>
+    <t>26 - Aldari Marques - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - Leandro Silveira Santos - marketing_digital</t>
+  </si>
+  <si>
+    <t>26 - Heloisa De Paula - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Juan Barbosa Silva de Barros - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Alexandre Chagas Nunes - programador_profissional</t>
+  </si>
+  <si>
+    <t>26 - Monique Silveira - empreendedorismo_digital</t>
+  </si>
+  <si>
+    <t>26 - Ana Luiza Santos - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Claudio Gonçalves - designer_multimídia_(edição_de_vídeos)</t>
+  </si>
+  <si>
+    <t>26 - Conceição pinho da Silva - web_design</t>
+  </si>
+  <si>
+    <t>26 - Raul Barbosa Guimarães Cabanellas - agente_de_turismo</t>
+  </si>
+  <si>
+    <t>26 - Sheila Vidal - fotografia_digital</t>
+  </si>
+  <si>
+    <t>26 - Sandra Alves feliciano - assistente_contábil</t>
+  </si>
+  <si>
+    <t>26 - Line Martins - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Maria Angela Santana Silva - informática</t>
+  </si>
+  <si>
+    <t>26 - Evandro Sousa - operações_portuárias</t>
+  </si>
+  <si>
+    <t>26 - Marcio Portugal - pacote_office_(word_/_excel_/_powerpoint)</t>
+  </si>
+  <si>
+    <t>26 - Danielly  Araújo - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Henrique Junior - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - Tássilo d'Avila Leal - web_design_avançado</t>
+  </si>
+  <si>
+    <t>26 - Carssinho de Paula - empreendedorismo_e_gestão</t>
+  </si>
+  <si>
+    <t>26 - Tânia Vasconcelos - informática</t>
+  </si>
+  <si>
+    <t>26 - Rita Fatima - excel_básico_ou_avançadoavançado</t>
+  </si>
+  <si>
+    <t>26 - Meg Barbosa - informática</t>
+  </si>
+  <si>
+    <t>26 - Duda Lima - inglês</t>
+  </si>
+  <si>
+    <t>26 - Vandete Salvador - fotografia_digital</t>
+  </si>
+  <si>
+    <t>26 - Tereza Gomes - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Maria Senna - informática</t>
+  </si>
+  <si>
+    <t>26 - Luciana Luciana - técnicas_administrativas</t>
+  </si>
+  <si>
+    <t>26 - Eliana Ferreira - assistente_de_marketing</t>
+  </si>
+  <si>
+    <t>26 - Liciane Bezerra Nascimento - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Cristina Vidal - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Carlos Menezes - programador_profissional</t>
+  </si>
+  <si>
+    <t>26 - Fatima Silva - inglês_tech_(inglês_+_informática)</t>
+  </si>
+  <si>
+    <t>26 - José Izaelo Tenório dos Anjos - informática</t>
+  </si>
+  <si>
+    <t>26 - Marcello Rodrigues - produção_de_vídeos_para_youtube</t>
+  </si>
+  <si>
+    <t>26 - Priscilla Maciel Correa - assistente_de_rh</t>
+  </si>
+  <si>
+    <t>26 - Daiane Pires de Oliveira - Inglês</t>
+  </si>
+  <si>
+    <t>26 - José Vital Soares  - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Kenia Cabral manduca - Assistente de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>26 - Moiselita Silva Damasceno - Operações Portuárias</t>
+  </si>
+  <si>
+    <t>26 - Karine fernandes guimaraes vieira - Técnicas Administrativas</t>
+  </si>
+  <si>
+    <t>26 - Alexandra Adão Magalhães  - Assistente de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>26 - Rayana da Conceição Damasceno - Técnicas Administrativas</t>
+  </si>
+  <si>
+    <t>26 - Luiz Carlos Santos Monteiro - Empreendedorismo Digital</t>
+  </si>
+  <si>
+    <t>26 - matheus alves lima - Desenvolvedor de Jogos</t>
+  </si>
+  <si>
+    <t>26 - Nathalia da mota santos - Gestão em Vendas</t>
+  </si>
+  <si>
+    <t>26 - João Victor Barbosa Nascimento  - Técnicas Administrativas</t>
+  </si>
+  <si>
+    <t>26 - Ana Vitoria Dos Santos Barboza  - Atendente de Farmácia</t>
+  </si>
+  <si>
+    <t>26 - Mario Bosco Ximenes Padilha Braga - Empreendedorismo Digital</t>
+  </si>
+  <si>
+    <t>26 - Jaqueline  - Assistente Contábil</t>
+  </si>
+  <si>
+    <t>26 - Thayanne Pires G. Ferreira - Designer de Interiores</t>
+  </si>
+  <si>
+    <t>26 - Silvia Lucia Otero Amaral  - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Rafaela Maria Bittencourt Monteiro - Técnicas Administrativas</t>
+  </si>
+  <si>
+    <t>26 - Tânia  - Empreendedorismo Digital</t>
+  </si>
+  <si>
+    <t>26 - Hestila Mariana cura santanna - Atendente de Farmácia</t>
+  </si>
+  <si>
+    <t>26 - MARCELO DOMINGUES - Programador Mobile</t>
+  </si>
+  <si>
+    <t>26 - larissa almeida - Operador de Computador</t>
+  </si>
+  <si>
+    <t>26 - Jessica Maria de Sousa silva - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Jessica sousa - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Vanuza Rosa  - Técnicas Administrativas</t>
+  </si>
+  <si>
+    <t>26 - Mikaella Cruz da Costa - Assistente de Logística</t>
+  </si>
+  <si>
+    <t>26 - Renata Moraes de Barros  - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Francisca Thalya Nascimento Silva - Produção de Videos</t>
+  </si>
+  <si>
+    <t>26 - Chandler Furtado - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Gloria Maria Moyses Orlando - Operador de Caixa</t>
+  </si>
+  <si>
+    <t>26 - Junara Helena Aires - Designer Multimídia</t>
+  </si>
+  <si>
+    <t>26 - larissa gomes - Assistente de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>26 - Helena Pereira da Silva - Gestão Empresarial</t>
+  </si>
+  <si>
+    <t>26 - Cristiane Martins - Atendente de Farmácia</t>
+  </si>
+  <si>
+    <t>26 - Andrea Garcia Schemes - Assistente Contábil</t>
+  </si>
+  <si>
+    <t>26 - Helio nascimento de araujo - Produção de Videos</t>
+  </si>
+  <si>
+    <t>26 - Raquel Luzia Pereira de Carvalho Rodrigues - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Iris Medeiros - Agente de Turismo</t>
+  </si>
+  <si>
+    <t>26 - Elizabete Cardoso de Carvalho - Operador de Computador</t>
+  </si>
+  <si>
+    <t>26 - Natália Souza  da Silva - Assistente de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>26 - Marcos André de Oliveira siqueira - Operador de Computador</t>
+  </si>
+  <si>
+    <t>26 - Werica Aniele maia Telles Sant ana - Empreendedorismo</t>
+  </si>
+  <si>
+    <t>26 - Roberta França  - Assistente de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>26 - Lêda Maria Perez da Silva - Atendente de Farmácia</t>
+  </si>
+  <si>
+    <t>26 - Felipe dos Reis - Assistente de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>26 - Rosenilce Silva  - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Giullia Patricia novaes de Oliveira - Inglês</t>
+  </si>
+  <si>
+    <t>26 - patricia helena de souza rufino - Empreendedorismo Digital</t>
+  </si>
+  <si>
+    <t>26 - Natália Silva Serafim - Hardware</t>
+  </si>
+  <si>
+    <t>26 - Natália Silva Serafim - Assistente de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>26 - Francisca Rayane De Carvalho Oliveira  - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Sabrina de Oliveira Vieira - Fotografia Digital</t>
+  </si>
+  <si>
+    <t>26 - Andrea Codicetti - Empreendedorismo Digital</t>
+  </si>
+  <si>
+    <t>26 - Thaynan Paulo da Silva Barcellos De Lima - Assistente de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>26 - Pablo Andrés Roco Hidalgo  - Produção de Videos</t>
+  </si>
+  <si>
+    <t>26 - Sara Maura de Jesus silva - Operador de Computador</t>
+  </si>
+  <si>
+    <t>26 - Rayane - Atendente de Farmácia</t>
+  </si>
+  <si>
+    <t>26 - Adriene  - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Rogerio Lafaille Carvalho  - Inglês</t>
+  </si>
+  <si>
+    <t>26 - Tônia Gonçalves da Silva  - Assistente Contábil</t>
+  </si>
+  <si>
+    <t>26 - Juliana lacerda - adm._bilíngue_(adiministração_+_inglês)</t>
+  </si>
+  <si>
+    <t>26 - Babii - pacote_office_(word_/_excel_/_powerpoint)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +1398,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,9 +1426,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,16 +1707,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B455"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,43 +1728,3636 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>21987654321</v>
+      <c r="B2" s="2">
+        <v>21982259030</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>21912345678</v>
+      <c r="B3" s="2">
+        <v>21986126207</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>21981234567</v>
+      <c r="B4" s="2">
+        <v>21990408169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21988549434</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>21994770589</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>21994433856</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>21984160251</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>21967352794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>21971867969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>21990419561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>21996166793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>21989189891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21996055054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21981370069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>21983517363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>21971696973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>21970167562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>21975451776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>21971548233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>21967557536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21981170478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21993284303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21994222196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21987437891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>21967759377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>21973785290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>21983853028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>21982941905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>21971725072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>21988922388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>21985642039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>21981270530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>21986663003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>21985194262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>21984748419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>21965863497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>21979395033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>21993130672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>21966425005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>21997174459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>21992398958</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>21973991423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>21983801651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>21982956107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>21993984597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>21964104245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>21965939189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>21970208380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2">
+        <v>21998099755</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>21972288079</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2">
+        <v>21990337283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>21980788338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2">
+        <v>21993535646</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>21999425282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2">
+        <v>21981598640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2">
+        <v>21980392863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2">
+        <v>21979931896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2">
+        <v>21988658158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2">
+        <v>21989330339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2">
+        <v>21992779452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2">
+        <v>21984736217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2">
+        <v>21981643999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2">
+        <v>21997679604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2">
+        <v>21981882732</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2">
+        <v>21974125159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2">
+        <v>21985693039</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2">
+        <v>21980694202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2">
+        <v>21966353006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2">
+        <v>21998671965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2">
+        <v>21966168247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2">
+        <v>21993656682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2">
+        <v>22988485022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2">
+        <v>21981422272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2">
+        <v>21990875945</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2">
+        <v>21965437646</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2">
+        <v>21998852929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2">
+        <v>21993711408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2">
+        <v>21994181599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2">
+        <v>21992206717</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2">
+        <v>21997772069</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2">
+        <v>21998502185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2">
+        <v>21979481917</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2">
+        <v>21976879742</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2">
+        <v>21983023312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2">
+        <v>21968032518</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2">
+        <v>21995091434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2">
+        <v>21981167446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2">
+        <v>21969677028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2">
+        <v>21979828902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2">
+        <v>21988023539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2">
+        <v>21998179000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2">
+        <v>21964043153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2">
+        <v>21986937705</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2">
+        <v>21980844937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2">
+        <v>21988205777</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2">
+        <v>21970196523</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2">
+        <v>21964247140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2">
+        <v>21973840548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2">
+        <v>21965288001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2">
+        <v>21988654199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2">
+        <v>21965082255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2">
+        <v>21979957209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2">
+        <v>21992050204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2">
+        <v>21997994580</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2">
+        <v>21999160345</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2">
+        <v>21980013838</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2">
+        <v>21980624430</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2">
+        <v>21984616311</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2">
+        <v>21986403855</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>450</v>
+      </c>
+      <c r="B111" s="2">
+        <v>21965685804</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>21991758805</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>21986652571</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>21982759519</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>21997905113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>21986888672</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>21970452143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>21980798902</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <v>21965266111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2">
+        <v>21992236300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2">
+        <v>21984479650</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2">
+        <v>21989300703</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2">
+        <v>21973932733</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2">
+        <v>21999442766</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
+        <v>21988016573</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
+        <v>21991511787</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
+        <v>21966556141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <v>21979391059</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <v>81984663010</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2">
+        <v>21997025988</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2">
+        <v>21997364693</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2">
+        <v>21992058958</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2">
+        <v>21973574732</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2">
+        <v>21987315616</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2">
+        <v>21986596032</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2">
+        <v>21964814038</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2">
+        <v>21097154385</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>451</v>
+      </c>
+      <c r="B138" s="2">
+        <v>21988284154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>21986988939</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>21964494074</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>21970143435</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>21994895094</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>21982896111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>21964471041</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>21965606237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>21994028347</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>21965867257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>21981574737</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>21986561401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>21999329752</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>21964844738</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>21992959968</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>21988651565</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>21982564909</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>21968006685</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>21984678887</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>21996893087</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>21998215684</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>21987212063</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>21972709685</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>21965922208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>22996591769</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>12982302752</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>21998797226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>21981314110</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>21998229976</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>21972794208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>21993769988</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>21985511848</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>21980539721</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>21990150767</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>21987524755</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>21969290654</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>21991315362</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>21988041580</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>21985212482</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>21995712584</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>21981936922</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>21990543990</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>21988986988</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>21996654545</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>21994974482</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>21997016255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>21964766035</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>21974898835</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>21968565345</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>21987591524</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>21985699480</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <v>21997477968</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <v>21965045953</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>21971629768</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>21976095822</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <v>21989855083</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>21985118647</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <v>21997810032</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>21992398052</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>21964577719</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>21990096116</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <v>21966005778</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <v>21971748628</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>21999541985</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <v>21975168712</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>21987600453</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <v>21970287232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>21971008932</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>21968135074</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <v>21988561358</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <v>21982982527</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>21967490390</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <v>21986831516</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <v>21982241468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <v>21982555662</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <v>21982096900</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>21985252162</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <v>51993623091</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>21999923575</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <v>21998362004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <v>21991141305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <v>21985121964</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <v>21993468056</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <v>21984562928</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <v>21987067056</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <v>21985358199</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <v>21964629377</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <v>21968129068</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <v>21969081616</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>21983352922</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <v>21989892530</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <v>21984081337</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <v>21980888576</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>77991411883</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>21985716880</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <v>21999556062</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <v>21983506602</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <v>21998945882</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>21997419585</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <v>21984828555</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>21984560300</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <v>21994113374</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>21982954141</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>21966389534</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <v>21965820037</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <v>21996869150</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <v>21993393183</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <v>21982151906</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <v>21992222287</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>21981059785</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <v>21974958205</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>21986008802</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <v>21965511641</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2">
+        <v>21968873830</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2">
+        <v>21981708164</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2">
+        <v>21971281229</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2">
+        <v>21998782739</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2">
+        <v>21998884176</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <v>21991829430</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2">
+        <v>21980136210</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <v>21988638399</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2">
+        <v>66981453581</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2">
+        <v>21995793580</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <v>21973737212</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <v>21985570600</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2">
+        <v>21976484699</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2">
+        <v>21972463282</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <v>21968969154</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>21965697564</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <v>21991316301</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2">
+        <v>21975052875</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2">
+        <v>21982277279</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2">
+        <v>21965285709</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>21982283974</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2">
+        <v>21982443913</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2">
+        <v>21998266062</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2">
+        <v>21992709399</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2">
+        <v>21987959475</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2">
+        <v>21976403518</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2">
+        <v>21968689642</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2">
+        <v>21983333890</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2">
+        <v>21998381246</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2">
+        <v>21986450204</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2">
+        <v>21989442051</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2">
+        <v>24999695753</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2">
+        <v>21994659440</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2">
+        <v>21991613374</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2">
+        <v>21981996863</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2">
+        <v>21995916639</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2">
+        <v>21987989470</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2">
+        <v>21988817875</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2">
+        <v>21972742086</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2">
+        <v>21997631957</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2">
+        <v>21969370760</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2">
+        <v>21968421154</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2">
+        <v>21964984656</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <v>21968532942</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <v>21974399093</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>21995604038</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <v>21996514458</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <v>21966381279</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2">
+        <v>21992028115</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2">
+        <v>21981050617</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>21995898028</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2">
+        <v>21987879212</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <v>21993456323</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2">
+        <v>21971397410</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2">
+        <v>21975523663</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <v>21991772696</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2">
+        <v>21979100847</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2">
+        <v>21996413305</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2">
+        <v>22998138862</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2">
+        <v>21975557089</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2">
+        <v>21987049768</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2">
+        <v>21980569243</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2">
+        <v>21969691277</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2">
+        <v>21981971856</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2">
+        <v>21988319446</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>21999644880</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2">
+        <v>21993020979</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2">
+        <v>21981180069</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <v>21982791666</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2">
+        <v>21982493945</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>21991067853</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2">
+        <v>21971309695</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <v>21997437476</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2">
+        <v>21996221817</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2">
+        <v>21986819559</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <v>21982401245</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2">
+        <v>21982262747</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <v>21980395961</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2">
+        <v>21999511363</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>21994167281</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <v>21973157919</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2">
+        <v>21980548144</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2">
+        <v>21966532359</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2">
+        <v>21965096690</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2">
+        <v>21968960707</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <v>21965052503</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>21968573292</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2">
+        <v>21982650478</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <v>21964107758</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2">
+        <v>21991551098</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <v>21973032026</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2">
+        <v>21979919468</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2">
+        <v>21982200147</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <v>21970440436</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2">
+        <v>21994062858</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>21981205811</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2">
+        <v>21972523181</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <v>21995747546</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2">
+        <v>21984121934</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2">
+        <v>21964695334</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>21993563964</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2">
+        <v>21974056539</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2">
+        <v>21970181161</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2">
+        <v>21980258872</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <v>21965856557</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <v>21987328572</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <v>21970055255</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <v>21964896750</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2">
+        <v>21998018942</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <v>21933015999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>21968717453</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <v>21983109216</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <v>21979489741</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>21987715348</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>22999578098</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>21995471500</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <v>21987098991</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <v>21970226940</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <v>21983416476</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <v>21975174086</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>21979627323</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <v>21987894521</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
+        <v>21983785251</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <v>21970140392</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <v>21974462976</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>21983999693</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <v>21975065483</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2">
+        <v>21970204966</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2">
+        <v>21993161106</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2">
+        <v>21988164456</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <v>21991868923</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2">
+        <v>21990308033</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2">
+        <v>21993433663</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2">
+        <v>21988241478</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2">
+        <v>21999438044</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <v>21964170116</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2">
+        <v>21996731645</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2">
+        <v>21998324557</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2">
+        <v>21967151014</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <v>21996821525</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>21990535027</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <v>21990428227</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <v>21971636906</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <v>21994392692</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <v>21996045444</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>21996752126</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <v>21967377298</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>21976084965</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>21980346663</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>21964693812</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>398</v>
+      </c>
+      <c r="B401" s="2">
+        <v>21964693812</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>399</v>
+      </c>
+      <c r="B402" s="2">
+        <v>21980802724</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>400</v>
+      </c>
+      <c r="B403" s="2">
+        <v>21979535955</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>401</v>
+      </c>
+      <c r="B404" s="2">
+        <v>21990807893</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>402</v>
+      </c>
+      <c r="B405" s="2">
+        <v>21969388424</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>403</v>
+      </c>
+      <c r="B406" s="2">
+        <v>21981422272</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>404</v>
+      </c>
+      <c r="B407" s="2">
+        <v>21994301826</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>405</v>
+      </c>
+      <c r="B408" s="2">
+        <v>21964108332</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>406</v>
+      </c>
+      <c r="B409" s="2">
+        <v>21983986566</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>407</v>
+      </c>
+      <c r="B410" s="2">
+        <v>21973893596</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>408</v>
+      </c>
+      <c r="B411" s="2">
+        <v>21983385835</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>409</v>
+      </c>
+      <c r="B412" s="2">
+        <v>21976792141</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>410</v>
+      </c>
+      <c r="B413" s="2">
+        <v>21994640483</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>411</v>
+      </c>
+      <c r="B414" s="2">
+        <v>21981462076</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>412</v>
+      </c>
+      <c r="B415" s="2">
+        <v>21975732105</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>413</v>
+      </c>
+      <c r="B416" s="2">
+        <v>21975732105</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>414</v>
+      </c>
+      <c r="B417" s="2">
+        <v>21974199106</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>415</v>
+      </c>
+      <c r="B418" s="2">
+        <v>21979134983</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>416</v>
+      </c>
+      <c r="B419" s="2">
+        <v>21999479721</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>417</v>
+      </c>
+      <c r="B420" s="2">
+        <v>21979534142</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>418</v>
+      </c>
+      <c r="B421" s="2">
+        <v>21985121964</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>419</v>
+      </c>
+      <c r="B422" s="2">
+        <v>21979934602</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>420</v>
+      </c>
+      <c r="B423" s="2">
+        <v>21969284169</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>421</v>
+      </c>
+      <c r="B424" s="2">
+        <v>21973755042</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>422</v>
+      </c>
+      <c r="B425" s="2">
+        <v>21992125856</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>423</v>
+      </c>
+      <c r="B426" s="2">
+        <v>21997338150</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>424</v>
+      </c>
+      <c r="B427" s="2">
+        <v>21986413616</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>418</v>
+      </c>
+      <c r="B428" s="2">
+        <v>21985121964</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>425</v>
+      </c>
+      <c r="B429" s="2">
+        <v>21968529217</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>426</v>
+      </c>
+      <c r="B430" s="2">
+        <v>21994804789</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>427</v>
+      </c>
+      <c r="B431" s="2">
+        <v>21991548389</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>428</v>
+      </c>
+      <c r="B432" s="2">
+        <v>21971659441</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>428</v>
+      </c>
+      <c r="B433" s="2">
+        <v>21971659441</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>429</v>
+      </c>
+      <c r="B434" s="2">
+        <v>21980309360</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>430</v>
+      </c>
+      <c r="B435" s="2">
+        <v>21994318438</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>431</v>
+      </c>
+      <c r="B436" s="2">
+        <v>21997173845</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>431</v>
+      </c>
+      <c r="B437" s="2">
+        <v>21997173845</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>432</v>
+      </c>
+      <c r="B438" s="2">
+        <v>21982651768</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>433</v>
+      </c>
+      <c r="B439" s="2">
+        <v>21993969464</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>434</v>
+      </c>
+      <c r="B440" s="2">
+        <v>21974791237</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>435</v>
+      </c>
+      <c r="B441" s="2">
+        <v>21972088008</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>436</v>
+      </c>
+      <c r="B442" s="2">
+        <v>21985877549</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>437</v>
+      </c>
+      <c r="B443" s="2">
+        <v>21991271265</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>438</v>
+      </c>
+      <c r="B444" s="2">
+        <v>21999799134</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>439</v>
+      </c>
+      <c r="B445" s="2">
+        <v>21999799134</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>440</v>
+      </c>
+      <c r="B446" s="2">
+        <v>61986547246</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>441</v>
+      </c>
+      <c r="B447" s="2">
+        <v>12991337282</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>442</v>
+      </c>
+      <c r="B448" s="2">
+        <v>22997673283</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>443</v>
+      </c>
+      <c r="B449" s="2">
+        <v>21987438411</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>444</v>
+      </c>
+      <c r="B450" s="2">
+        <v>21983446223</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>445</v>
+      </c>
+      <c r="B451" s="2">
+        <v>21966949061</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>446</v>
+      </c>
+      <c r="B452" s="2">
+        <v>21969797888</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>447</v>
+      </c>
+      <c r="B453" s="2">
+        <v>21984313534</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>448</v>
+      </c>
+      <c r="B454" s="2">
+        <v>21979458015</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>449</v>
+      </c>
+      <c r="B455" s="2">
+        <v>21988285359</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
